--- a/update-mapping-pn13/ig/ValueSet-Topography.xlsx
+++ b/update-mapping-pn13/ig/ValueSet-Topography.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/ValueSet-Topography.xlsx
+++ b/update-mapping-pn13/ig/ValueSet-Topography.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/ValueSet-Topography.xlsx
+++ b/update-mapping-pn13/ig/ValueSet-Topography.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/ValueSet-Topography.xlsx
+++ b/update-mapping-pn13/ig/ValueSet-Topography.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/ValueSet-Topography.xlsx
+++ b/update-mapping-pn13/ig/ValueSet-Topography.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/ValueSet-Topography.xlsx
+++ b/update-mapping-pn13/ig/ValueSet-Topography.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from International Cl" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
